--- a/archive/2025-09/ETF_Investment_Portfolio_20250903.xlsx
+++ b/archive/2025-09/ETF_Investment_Portfolio_20250903.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,181 +459,901 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1214000</v>
+        <v>754000</v>
       </c>
       <c r="D2" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中砂</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1601000</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>9.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>智邦</t>
+          <t>川湖</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1162000</v>
+        <v>57000</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>金像電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1887000</v>
+        <v>1095000</v>
       </c>
       <c r="D5" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>台光電</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>926000</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5977000</v>
+        <v>1601000</v>
       </c>
       <c r="D7" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>奇鋐</t>
+          <t>智邦</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>869000</v>
+        <v>1162000</v>
       </c>
       <c r="D8" t="n">
-        <v>4.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>健策</t>
+          <t>鴻準</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>388000</v>
+        <v>2204000</v>
       </c>
       <c r="D9" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>華碩</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>291000</v>
+        <v>788000</v>
       </c>
       <c r="D10" t="n">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金像電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1887000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>926000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>美律</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>京元電子</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5977000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯發科</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>523000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>強茂</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>長榮航</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>430000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>玉山金</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14977010</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>兆豐金</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>818000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>大立光</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>奇鋐</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>869000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>台灣大</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弘塑</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>206000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>102000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>優群</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>998000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新日興</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>嘉澤</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>辛耘</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>888000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>健策</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>291000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>3665</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>貿聯-KY</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C33" t="n">
         <v>1183848</v>
       </c>
-      <c r="D11" t="n">
-        <v>5.67</v>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上品</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>420000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4298000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>譜瑞-KY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>161000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>232000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>振曜</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>旺矽</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>525000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>台燿</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1578000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>台表科</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>保瑞</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>251000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>穎崴</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>緯穎</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>182000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>台灣虎航</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>142000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>富世達</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>386000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>昇陽半導體</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>南電</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>勤誠</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>822000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>高力</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,192 +1405,952 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1214000</v>
+        <v>754000</v>
       </c>
       <c r="D2" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中砂</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1601000</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>9.27</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>智邦</t>
+          <t>川湖</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1162000</v>
+        <v>57000</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>金像電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1887000</v>
+        <v>1095000</v>
       </c>
       <c r="D5" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>台光電</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>926000</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5977000</v>
+        <v>1601000</v>
       </c>
       <c r="D7" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>奇鋐</t>
+          <t>智邦</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>869000</v>
+        <v>1162000</v>
       </c>
       <c r="D8" t="n">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>健策</t>
+          <t>鴻準</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>388000</v>
+        <v>2204000</v>
       </c>
       <c r="D9" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>華碩</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>291000</v>
+        <v>788000</v>
       </c>
       <c r="D10" t="n">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金像電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1887000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>926000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>美律</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>京元電子</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5977000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯發科</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>523000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>強茂</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>長榮航</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>430000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>玉山金</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14977010</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>兆豐金</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>818000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>大立光</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>奇鋐</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>869000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>台灣大</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弘塑</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>206000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>102000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>優群</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>998000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新日興</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>嘉澤</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>辛耘</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>888000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>健策</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>291000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>3665</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>貿聯-KY</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C33" t="n">
         <v>1183848</v>
       </c>
-      <c r="D11" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上品</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>420000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4298000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>譜瑞-KY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>161000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>232000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>振曜</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>旺矽</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>525000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>台燿</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1578000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>台表科</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>保瑞</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>251000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>穎崴</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>緯穎</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>182000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>台灣虎航</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>142000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>富世達</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>386000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>昇陽半導體</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>南電</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>勤誠</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>822000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>高力</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/archive/2025-09/ETF_Investment_Portfolio_20250903.xlsx
+++ b/archive/2025-09/ETF_Investment_Portfolio_20250903.xlsx
@@ -471,7 +471,7 @@
         <v>754000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>57000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1095000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>1601000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -579,7 +579,7 @@
         <v>1162000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="9">
@@ -597,7 +597,7 @@
         <v>2204000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
         <v>788000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         <v>1887000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>926000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="13">
@@ -687,7 +687,7 @@
         <v>5977000</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="15">
@@ -705,7 +705,7 @@
         <v>523000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="16">
@@ -723,7 +723,7 @@
         <v>2175000</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
@@ -741,7 +741,7 @@
         <v>430000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -759,7 +759,7 @@
         <v>14977010</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="19">
@@ -777,7 +777,7 @@
         <v>818000</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -795,7 +795,7 @@
         <v>32000</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
@@ -813,7 +813,7 @@
         <v>869000</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>43000</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
@@ -849,7 +849,7 @@
         <v>206000</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -867,7 +867,7 @@
         <v>102000</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
@@ -903,7 +903,7 @@
         <v>998000</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="27">
@@ -921,7 +921,7 @@
         <v>800000</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28">
@@ -939,7 +939,7 @@
         <v>80000</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="29">
@@ -957,7 +957,7 @@
         <v>159000</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
@@ -975,7 +975,7 @@
         <v>888000</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="31">
@@ -993,7 +993,7 @@
         <v>388000</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="32">
@@ -1011,7 +1011,7 @@
         <v>291000</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="33">
@@ -1029,7 +1029,7 @@
         <v>1183848</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="34">
@@ -1047,7 +1047,7 @@
         <v>420000</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="35">
@@ -1065,7 +1065,7 @@
         <v>4298000</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>161000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="37">
@@ -1101,7 +1101,7 @@
         <v>232000</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>525000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="41">
@@ -1173,7 +1173,7 @@
         <v>1578000</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="42">
@@ -1209,7 +1209,7 @@
         <v>251000</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="44">
@@ -1227,7 +1227,7 @@
         <v>1000</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45">
@@ -1245,7 +1245,7 @@
         <v>182000</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="46">
@@ -1263,7 +1263,7 @@
         <v>142000</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
@@ -1281,7 +1281,7 @@
         <v>386000</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="48">
@@ -1299,7 +1299,7 @@
         <v>1499000</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="49">
@@ -1317,7 +1317,7 @@
         <v>3399000</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="50">
@@ -1335,7 +1335,7 @@
         <v>822000</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="51">
@@ -1417,7 +1417,7 @@
         <v>754000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -1455,7 +1455,7 @@
         <v>57000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1095000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -1512,7 +1512,7 @@
         <v>1601000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
@@ -1531,7 +1531,7 @@
         <v>1162000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -1550,7 +1550,7 @@
         <v>2204000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
@@ -1569,7 +1569,7 @@
         <v>788000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>1887000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
@@ -1607,7 +1607,7 @@
         <v>926000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -1645,7 +1645,7 @@
         <v>5977000</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -1664,7 +1664,7 @@
         <v>523000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -1683,7 +1683,7 @@
         <v>2175000</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>430000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -1721,7 +1721,7 @@
         <v>14977010</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -1740,7 +1740,7 @@
         <v>818000</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
@@ -1759,7 +1759,7 @@
         <v>32000</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
@@ -1778,7 +1778,7 @@
         <v>869000</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -1797,7 +1797,7 @@
         <v>43000</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -1816,7 +1816,7 @@
         <v>206000</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -1835,7 +1835,7 @@
         <v>102000</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -1873,7 +1873,7 @@
         <v>998000</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>800000</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>80000</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="E28" t="inlineStr"/>
     </row>
@@ -1930,7 +1930,7 @@
         <v>159000</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
@@ -1949,7 +1949,7 @@
         <v>888000</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="E30" t="inlineStr"/>
     </row>
@@ -1968,7 +1968,7 @@
         <v>388000</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="E31" t="inlineStr"/>
     </row>
@@ -1987,7 +1987,7 @@
         <v>291000</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="E32" t="inlineStr"/>
     </row>
@@ -2006,7 +2006,7 @@
         <v>1183848</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="E33" t="inlineStr"/>
     </row>
@@ -2025,7 +2025,7 @@
         <v>420000</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E34" t="inlineStr"/>
     </row>
@@ -2044,7 +2044,7 @@
         <v>4298000</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="E35" t="inlineStr"/>
     </row>
@@ -2063,7 +2063,7 @@
         <v>161000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="E36" t="inlineStr"/>
     </row>
@@ -2082,7 +2082,7 @@
         <v>232000</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E37" t="inlineStr"/>
     </row>
@@ -2139,7 +2139,7 @@
         <v>525000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="E40" t="inlineStr"/>
     </row>
@@ -2158,7 +2158,7 @@
         <v>1578000</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="E41" t="inlineStr"/>
     </row>
@@ -2196,7 +2196,7 @@
         <v>251000</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E43" t="inlineStr"/>
     </row>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E44" t="inlineStr"/>
     </row>
@@ -2234,7 +2234,7 @@
         <v>182000</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="E45" t="inlineStr"/>
     </row>
@@ -2253,7 +2253,7 @@
         <v>142000</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E46" t="inlineStr"/>
     </row>
@@ -2272,7 +2272,7 @@
         <v>386000</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="E47" t="inlineStr"/>
     </row>
@@ -2291,7 +2291,7 @@
         <v>1499000</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="E48" t="inlineStr"/>
     </row>
@@ -2310,7 +2310,7 @@
         <v>3399000</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E49" t="inlineStr"/>
     </row>
@@ -2329,7 +2329,7 @@
         <v>822000</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="E50" t="inlineStr"/>
     </row>
